--- a/summer_ospp/2024/24c6d0416/figure_1_b/conclusion.xlsx
+++ b/summer_ospp/2024/24c6d0416/figure_1_b/conclusion.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My desktop\Ipython files\figure1_b\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My desktop\开源之夏×MindSpore\24c6d0416\figure_1_b\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4116427-86A8-440E-8494-E2F5EC617BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB8B0D4-9F2B-458A-A826-0023E554E98B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6105" yWindow="3285" windowWidth="23715" windowHeight="20145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16380" yWindow="1680" windowWidth="21705" windowHeight="10020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -165,12 +165,6 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -185,6 +179,12 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -469,375 +469,378 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" customWidth="1"/>
-    <col min="3" max="12" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="6" max="12" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
     </row>
     <row r="2" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="5">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="3">
         <v>1</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="3">
         <v>2</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="3">
         <v>3</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="3">
         <v>4</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="3">
         <v>5</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="3">
         <v>6</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="3">
         <v>7</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="3">
         <v>8</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="3">
         <v>9</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6">
-        <v>0.67357308500000002</v>
-      </c>
-      <c r="D3" s="6">
-        <v>0.60293217499999996</v>
-      </c>
-      <c r="E3" s="6">
-        <v>0.96265293900000004</v>
-      </c>
-      <c r="F3" s="6">
-        <v>1.3992645370000001</v>
-      </c>
-      <c r="G3" s="6">
-        <v>1.775244394</v>
-      </c>
-      <c r="H3" s="6">
-        <v>2.0673745669999999</v>
-      </c>
-      <c r="I3" s="6">
-        <v>2.4889400570000002</v>
-      </c>
-      <c r="J3" s="6">
-        <v>2.9844232310000001</v>
-      </c>
-      <c r="K3" s="6">
-        <v>3.4902472599999999</v>
-      </c>
-      <c r="L3" s="6">
-        <v>3.6918400550000001</v>
+      <c r="C3" s="4">
+        <v>7.2906063914283568E-4</v>
+      </c>
+      <c r="D3" s="4">
+        <v>2.6832516658667059E-2</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1.9742853986268544E-2</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.60577788781180641</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1.2139263222115821</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1.2986768640644244</v>
+      </c>
+      <c r="I3" s="4">
+        <v>1.4242736970992991</v>
+      </c>
+      <c r="J3" s="4">
+        <v>1.4432156265464082</v>
+      </c>
+      <c r="K3" s="4">
+        <v>1.452642801131949</v>
+      </c>
+      <c r="L3" s="4">
+        <v>1.4643632345349986</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="7">
-        <v>1.1041881410000001</v>
-      </c>
-      <c r="D4" s="7">
-        <v>1.886399132</v>
-      </c>
-      <c r="E4" s="7">
-        <v>3.6122497660000001</v>
-      </c>
-      <c r="F4" s="7">
-        <v>5.1271808239999999</v>
-      </c>
-      <c r="G4" s="7">
-        <v>6.4936449319999996</v>
-      </c>
-      <c r="H4" s="7">
-        <v>7.3882893579999998</v>
-      </c>
-      <c r="I4" s="7">
-        <v>7.7462409269999997</v>
-      </c>
-      <c r="J4" s="7">
-        <v>8.2241848730000005</v>
-      </c>
-      <c r="K4" s="7">
-        <v>8.4792076929999993</v>
-      </c>
-      <c r="L4" s="7">
-        <v>8.5465426299999994</v>
+      <c r="C4" s="5">
+        <v>0.56245744822982813</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1.3567059841343265</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2.3384085953081089</v>
+      </c>
+      <c r="F4" s="5">
+        <v>3.741034998599754</v>
+      </c>
+      <c r="G4" s="5">
+        <v>4.8568181838259008</v>
+      </c>
+      <c r="H4" s="5">
+        <v>5.5400062265350494</v>
+      </c>
+      <c r="I4" s="5">
+        <v>5.9601019959327983</v>
+      </c>
+      <c r="J4" s="5">
+        <v>6.1382534678129987</v>
+      </c>
+      <c r="K4" s="5">
+        <v>6.1687906874081726</v>
+      </c>
+      <c r="L4" s="5">
+        <v>6.3484101338427061</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="6">
-        <v>0.53255716435999989</v>
-      </c>
-      <c r="D5" s="6">
-        <v>0.755112105092</v>
-      </c>
-      <c r="E5" s="6">
-        <v>0.95087966733999951</v>
-      </c>
-      <c r="F5" s="6">
-        <v>1.3168317432600001</v>
-      </c>
-      <c r="G5" s="6">
-        <v>1.61591609514</v>
-      </c>
-      <c r="H5" s="6">
-        <v>1.7068380321600005</v>
-      </c>
-      <c r="I5" s="6">
-        <v>1.9735129568599996</v>
-      </c>
-      <c r="J5" s="6">
-        <v>2.4489577635800002</v>
-      </c>
-      <c r="K5" s="6">
-        <v>2.6998826319199996</v>
-      </c>
-      <c r="L5" s="6">
-        <v>2.8694034615200001</v>
+      <c r="C5" s="4">
+        <v>5.1241866730384301E-5</v>
+      </c>
+      <c r="D5" s="4">
+        <v>4.636665743585502E-5</v>
+      </c>
+      <c r="E5" s="4">
+        <v>4.0840329813862799E-4</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.13572942444283589</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.82513052706726508</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0.85189355887070972</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0.85474323285202436</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0.86125390610919783</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0.87000680239769634</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0.88141401776533523</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="6"/>
+      <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="7">
-        <v>0.86779360400000005</v>
-      </c>
-      <c r="D6" s="7">
-        <v>2.2436096110000001</v>
-      </c>
-      <c r="E6" s="7">
-        <v>3.3057756880000002</v>
-      </c>
-      <c r="F6" s="7">
-        <v>4.8109415550000003</v>
-      </c>
-      <c r="G6" s="7">
-        <v>5.7872433389999998</v>
-      </c>
-      <c r="H6" s="7">
-        <v>6.6288151449999999</v>
-      </c>
-      <c r="I6" s="7">
-        <v>7.3164105929999996</v>
-      </c>
-      <c r="J6" s="7">
-        <v>7.6192882209999997</v>
-      </c>
-      <c r="K6" s="7">
-        <v>7.8893679419999998</v>
-      </c>
-      <c r="L6" s="7">
-        <v>8.0981927410000001</v>
+      <c r="C6" s="5">
+        <v>0.42096128525637111</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1.1475994333335635</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1.7376789048386849</v>
+      </c>
+      <c r="F6" s="5">
+        <v>3.0001925283667417</v>
+      </c>
+      <c r="G6" s="5">
+        <v>3.9601642048955079</v>
+      </c>
+      <c r="H6" s="5">
+        <v>4.6674243296396334</v>
+      </c>
+      <c r="I6" s="5">
+        <v>5.1851734468268651</v>
+      </c>
+      <c r="J6" s="5">
+        <v>5.3788221975083772</v>
+      </c>
+      <c r="K6" s="5">
+        <v>5.3095518984494792</v>
+      </c>
+      <c r="L6" s="5">
+        <v>5.8196793651098799</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="6">
-        <v>1.7683332530245348E-4</v>
-      </c>
-      <c r="D7" s="6">
-        <v>0.17876430272575297</v>
-      </c>
-      <c r="E7" s="6">
-        <v>0.27439623248179701</v>
-      </c>
-      <c r="F7" s="6">
-        <v>0.87368790906322491</v>
-      </c>
-      <c r="G7" s="6">
-        <v>1.3914055124601326</v>
-      </c>
-      <c r="H7" s="6">
-        <v>1.7474414125599993</v>
-      </c>
-      <c r="I7" s="6">
-        <v>1.9538014065200004</v>
-      </c>
-      <c r="J7" s="6">
-        <v>2.1176782566400001</v>
-      </c>
-      <c r="K7" s="6">
-        <v>2.2226361770600005</v>
-      </c>
-      <c r="L7" s="6">
-        <v>2.2662582386199999</v>
+      <c r="C7" s="4">
+        <v>2.0598456274158099E-12</v>
+      </c>
+      <c r="D7" s="4">
+        <v>4.6216186434293319E-12</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1.4223364709565656E-11</v>
+      </c>
+      <c r="F7" s="4">
+        <v>4.4788917717938634E-10</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.61710033156768451</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0.61771057910491667</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0.61977846224608568</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0.62330359843942851</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0.62828285452385846</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0.63470983277475346</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="4" t="s">
+      <c r="A8" s="6"/>
+      <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="7">
-        <v>0.68518873000000002</v>
-      </c>
-      <c r="D8" s="7">
-        <v>2.000644361</v>
-      </c>
-      <c r="E8" s="7">
-        <v>3.3429008800000002</v>
-      </c>
-      <c r="F8" s="7">
-        <v>4.8445291079999997</v>
-      </c>
-      <c r="G8" s="7">
-        <v>6.1379538389999997</v>
-      </c>
-      <c r="H8" s="7">
-        <v>6.9349139429999997</v>
-      </c>
-      <c r="I8" s="7">
-        <v>7.5913193410000002</v>
-      </c>
-      <c r="J8" s="7">
-        <v>8.1230417540000008</v>
-      </c>
-      <c r="K8" s="7">
-        <v>8.304833039</v>
-      </c>
-      <c r="L8" s="7">
-        <v>8.4459079619999997</v>
+      <c r="C8" s="5">
+        <v>0.29059804015775531</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1.2191653566068044</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1.7940955535090692</v>
+      </c>
+      <c r="F8" s="5">
+        <v>3.4430514756551363</v>
+      </c>
+      <c r="G8" s="5">
+        <v>4.5894970526810637</v>
+      </c>
+      <c r="H8" s="5">
+        <v>5.3947798574524191</v>
+      </c>
+      <c r="I8" s="5">
+        <v>5.8497133632929925</v>
+      </c>
+      <c r="J8" s="5">
+        <v>6.0632598438797682</v>
+      </c>
+      <c r="K8" s="5">
+        <v>6.0120193196988456</v>
+      </c>
+      <c r="L8" s="5">
+        <v>6.2659054551953304</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="6">
-        <v>3.5032862273411147E-3</v>
-      </c>
-      <c r="D9" s="6">
-        <v>8.2484493308106116E-2</v>
-      </c>
-      <c r="E9" s="6">
-        <v>0.34365247184434672</v>
-      </c>
-      <c r="F9" s="6">
-        <v>1.0215058328561248</v>
-      </c>
-      <c r="G9" s="6">
-        <v>1.5551618649400001</v>
-      </c>
-      <c r="H9" s="6">
-        <v>1.7554474911800007</v>
-      </c>
-      <c r="I9" s="6">
-        <v>1.9143476786999998</v>
-      </c>
-      <c r="J9" s="6">
-        <v>2.0160006873000005</v>
-      </c>
-      <c r="K9" s="6">
-        <v>2.0254657380199999</v>
-      </c>
-      <c r="L9" s="6">
-        <v>2.0658277479600007</v>
+      <c r="C9" s="4">
+        <v>1.488979204079476E-10</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.4314836542799136E-10</v>
+      </c>
+      <c r="E9" s="4">
+        <v>2.3554252158539582E-10</v>
+      </c>
+      <c r="F9" s="4">
+        <v>7.6581697020081135E-2</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.67305803022804411</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0.6811545615076976</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0.68903802653891022</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0.69146658332287425</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0.69436359806433101</v>
+      </c>
+      <c r="L9" s="4">
+        <v>0.69772704423510101</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="4" t="s">
+      <c r="A10" s="6"/>
+      <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="7">
-        <v>0.70581668412674248</v>
-      </c>
-      <c r="D10" s="7">
-        <v>1.9765877675754626</v>
-      </c>
-      <c r="E10" s="7">
-        <v>2.5431402668664984</v>
-      </c>
-      <c r="F10" s="7">
-        <v>4.7345758404231164</v>
-      </c>
-      <c r="G10" s="7">
-        <v>6.1197052397259792</v>
-      </c>
-      <c r="H10" s="7">
-        <v>7.2956232422740595</v>
-      </c>
-      <c r="I10" s="7">
-        <v>7.7296804141403062</v>
-      </c>
-      <c r="J10" s="7">
-        <v>8.2040680679034921</v>
-      </c>
-      <c r="K10" s="7">
-        <v>8.4897611691704391</v>
-      </c>
-      <c r="L10" s="7">
-        <v>8.5270383587954015</v>
+      <c r="C10" s="5">
+        <v>0.29652013272914357</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1.2452756072327875</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1.9029175226414834</v>
+      </c>
+      <c r="F10" s="5">
+        <v>3.7630862631354387</v>
+      </c>
+      <c r="G10" s="5">
+        <v>4.8409975577375759</v>
+      </c>
+      <c r="H10" s="5">
+        <v>5.7138847041775636</v>
+      </c>
+      <c r="I10" s="5">
+        <v>6.0792604264791885</v>
+      </c>
+      <c r="J10" s="5">
+        <v>6.2478844309479653</v>
+      </c>
+      <c r="K10" s="5">
+        <v>6.2652283982135115</v>
+      </c>
+      <c r="L10" s="5">
+        <v>6.3708779039943382</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
